--- a/academycity/data/avic/datasets/excel/eli/2018.xlsx
+++ b/academycity/data/avic/datasets/excel/eli/2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" state="visible" r:id="rId2"/>
@@ -588,16 +588,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -622,127 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
@@ -772,7 +651,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,204 +660,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFDEEBF7"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDEDED"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7E7"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-        <bgColor rgb="FFDAE3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9C9C9"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFA1B8E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF5B9BD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFA7D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF8FAADC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF7F7F7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEDEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC5E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -986,115 +697,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFA1B8E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF8FAADC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4472C4"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1118,139 +722,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="25" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="26" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="27" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="28" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="29" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+  </cellStyleXfs>
+  <cellXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="27" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1258,23 +756,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="30" borderId="0" xfId="56" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,31 +788,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1314,7 +796,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,136 +804,85 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="20% - Accent1 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent5 2" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="20% - Accent6 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1 2" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent2 2" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3 2" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4 2" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent5 2" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6 2" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1 2" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent2 2" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent5 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6 2" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent1 2" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent2 2" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent3 2" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent4 2" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent5 2" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent6 2" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad 2" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Calculation 2" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Check Cell 2" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Comma 2" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Explanatory Text 2" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good 2" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1 2" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2 2" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3 2" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 4 2" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Input 2" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Linked Cell 2" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral 2" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note 2" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Output 2" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Title 2" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Total 2" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning Text 2" xfId="62" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFB4C7E7"/>
-      <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF9C6500"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFA1B8E1"/>
-      <rgbColor rgb="FFC9C9C9"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFEDEDED"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFFFEB9C"/>
-      <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFF4B183"/>
-      <rgbColor rgb="FFB2B2B2"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF8001"/>
-      <rgbColor rgb="FFFA7D00"/>
-      <rgbColor rgb="FF44546A"/>
-      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF70AD47"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFFFE699"/>
-      <rgbColor rgb="FFFFC7CE"/>
-      <rgbColor rgb="FF3F3F76"/>
-      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1464,7 +895,7 @@
   </sheetPr>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15094,8 +14525,8 @@
   </sheetPr>
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15112,20 +14543,20 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>35.5594183033224</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10.3479628487002</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10.3479628487002</v>
+        <v>35.5594183033224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
